--- a/liensLogistiqueIT.xlsx
+++ b/liensLogistiqueIT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6735A2B2-FA49-4661-8486-D7D9CB53699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C4C77-F601-44C4-90AF-DA4C74D1F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57690" yWindow="1215" windowWidth="21255" windowHeight="17325" xr2:uid="{BE6A4199-08F0-40D5-81B4-B6F024A7E36E}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>https://iamuaprod.kiabi.fr/idmdash</t>
   </si>
   <si>
-    <t>ogistique DFT ClientIT</t>
-  </si>
-  <si>
     <t>Liens DFT :</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>https://viprendezvousfrontprd001.kiabi.fr/rendezvous_admin/</t>
+  </si>
+  <si>
+    <t>Logistique DFT ClientIT</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="A1:D36"/>
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -732,21 +732,21 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
@@ -758,7 +758,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
@@ -801,19 +801,19 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -825,7 +825,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
@@ -840,7 +840,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
@@ -852,7 +852,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
@@ -864,19 +864,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
@@ -888,7 +888,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
@@ -900,7 +900,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
@@ -912,7 +912,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -926,21 +926,21 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
@@ -952,10 +952,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
@@ -978,19 +978,19 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -1004,63 +1004,63 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>

--- a/liensLogistiqueIT.xlsx
+++ b/liensLogistiqueIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C4C77-F601-44C4-90AF-DA4C74D1F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0991A504-B420-4BAF-A405-C97D47EBCE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57690" yWindow="1215" windowWidth="21255" windowHeight="17325" xr2:uid="{BE6A4199-08F0-40D5-81B4-B6F024A7E36E}"/>
+    <workbookView xWindow="43515" yWindow="3630" windowWidth="21255" windowHeight="17325" xr2:uid="{BE6A4199-08F0-40D5-81B4-B6F024A7E36E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>Logistique CL ClientIT</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Prise de RDV ELW</t>
   </si>
   <si>
-    <t>https://b2b.kiabi.fr/logrdv</t>
-  </si>
-  <si>
     <t>Saisie des Poids</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Logistique DFT ClientIT</t>
+  </si>
+  <si>
+    <t>microsoft-edge:https://b2b.kiabi.fr/logrdv</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="D24" sqref="D24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -698,7 +698,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -707,10 +710,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -721,32 +724,32 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
@@ -758,24 +761,24 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -789,7 +792,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
@@ -801,19 +804,19 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -825,14 +828,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -840,7 +843,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
@@ -852,7 +855,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
@@ -864,19 +867,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
@@ -888,7 +891,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
@@ -900,47 +903,50 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>18</v>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
@@ -952,10 +958,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -966,7 +972,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
@@ -978,98 +984,98 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1078,8 +1084,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D22" r:id="rId1" xr:uid="{BE0E279E-BFF1-4DB7-ACAE-FCF1722DA2D4}"/>
-    <hyperlink ref="D24" r:id="rId2" xr:uid="{19FC6939-0296-4335-938B-567CE5B198C5}"/>
-    <hyperlink ref="D28" r:id="rId3" xr:uid="{8A4BFE6C-3516-4E36-9123-62A027591DD6}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{8A4BFE6C-3516-4E36-9123-62A027591DD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liensLogistiqueIT.xlsx
+++ b/liensLogistiqueIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0991A504-B420-4BAF-A405-C97D47EBCE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4481775-DE66-48C2-B18D-008B3DF19E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43515" yWindow="3630" windowWidth="21255" windowHeight="17325" xr2:uid="{BE6A4199-08F0-40D5-81B4-B6F024A7E36E}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{BE6A4199-08F0-40D5-81B4-B6F024A7E36E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Logistique CL ClientIT</t>
   </si>
@@ -98,15 +98,6 @@
     <t>microsoft-edge:http://srvaporefcomprd002.kiabi.fr:7778/forms/frmservlet?config=iasref_poids_7</t>
   </si>
   <si>
-    <t>Liens Ressources Humaines :</t>
-  </si>
-  <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
     <t>Liens DFT :</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
   </si>
   <si>
     <t>Logistique MECA ClientIT</t>
-  </si>
-  <si>
-    <t>Logistique PFI ClientIT</t>
   </si>
   <si>
     <t>Logistique TRI ClientIT</t>
@@ -589,7 +577,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -698,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -720,36 +708,28 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
@@ -760,25 +740,17 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -792,7 +764,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
@@ -804,19 +776,19 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -828,7 +800,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
@@ -843,7 +815,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
@@ -855,7 +827,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
@@ -867,19 +839,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
@@ -891,7 +863,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
@@ -903,50 +875,42 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
@@ -958,10 +922,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -972,7 +936,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
@@ -984,99 +948,83 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1"/>
